--- a/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_EQ组.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_EQ组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KFB28\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitDoc\Mogo_Doc\VersionRecords\Version 3.1.0 20160331\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="80">
   <si>
     <t>No</t>
   </si>
@@ -341,12 +341,24 @@
     <t>周云</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -461,6 +473,12 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -596,7 +614,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,6 +677,12 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1024,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1043,8 +1067,8 @@
     <col min="11" max="11" width="11.875" style="9" customWidth="1"/>
     <col min="12" max="12" width="11.375" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="7.75" style="10" customWidth="1"/>
     <col min="16" max="16" width="10.25" style="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.75" style="11" customWidth="1"/>
     <col min="18" max="18" width="14.125" style="11" bestFit="1" customWidth="1"/>
@@ -1147,12 +1171,12 @@
       <c r="L2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="7"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="R2" s="19"/>
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="27" x14ac:dyDescent="0.15">
@@ -1190,12 +1214,20 @@
       <c r="L3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="4"/>
+      <c r="M3" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="22">
+        <v>42458</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="R3" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="27" x14ac:dyDescent="0.15">
@@ -1233,12 +1265,20 @@
       <c r="L4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="4"/>
+      <c r="M4" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="22">
+        <v>42458</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="R4" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
@@ -1276,12 +1316,20 @@
       <c r="L5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="4"/>
+      <c r="M5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="22">
+        <v>42460</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="R5" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
@@ -1319,12 +1367,20 @@
       <c r="L6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="4"/>
+      <c r="M6" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="22">
+        <v>42460</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="R6" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" ht="27" x14ac:dyDescent="0.15">
@@ -1362,12 +1418,20 @@
       <c r="L7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
+      <c r="M7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="22">
+        <v>42460</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="R7" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
@@ -1405,12 +1469,20 @@
       <c r="L8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="4"/>
+      <c r="M8" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="22">
+        <v>42460</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.15">
@@ -1448,12 +1520,20 @@
       <c r="L9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="4"/>
+      <c r="M9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="22">
+        <v>42460</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="R9" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
@@ -1491,12 +1571,20 @@
       <c r="L10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="4"/>
+      <c r="M10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="22">
+        <v>42460</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="R10" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="27" x14ac:dyDescent="0.15">
@@ -1534,12 +1622,20 @@
       <c r="L11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="4"/>
+      <c r="M11" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="22">
+        <v>42460</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="R11" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="27" x14ac:dyDescent="0.15">
@@ -1577,12 +1673,20 @@
       <c r="L12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="4"/>
+      <c r="M12" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="22">
+        <v>42460</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="R12" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
@@ -1620,12 +1724,20 @@
       <c r="L13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="4"/>
+      <c r="M13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="22">
+        <v>42460</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="R13" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
@@ -1663,12 +1775,20 @@
       <c r="L14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
+      <c r="M14" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="22">
+        <v>42460</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="R14" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
@@ -1706,12 +1826,20 @@
       <c r="L15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="4"/>
+      <c r="M15" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="22">
+        <v>42458</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="R15" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
@@ -1749,12 +1877,20 @@
       <c r="L16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="4"/>
+      <c r="M16" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="22">
+        <v>42458</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="R16" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.15">
@@ -1792,12 +1928,20 @@
       <c r="L17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="4"/>
+      <c r="M17" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="22">
+        <v>42458</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
@@ -1835,12 +1979,20 @@
       <c r="L18" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="4"/>
+      <c r="M18" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="22">
+        <v>42458</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="R18" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" ht="27" x14ac:dyDescent="0.15">
@@ -1878,12 +2030,20 @@
       <c r="L19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="4"/>
+      <c r="M19" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="22">
+        <v>42458</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="R19" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">

--- a/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_EQ组.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_EQ组.xlsx
@@ -12,18 +12,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="版本3.0.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本3.1.0新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本3.0.2 新特性|Fix Bug'!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本3.1.0新特性|Fix Bug'!$A$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -351,6 +351,34 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客App】未推送的转客，应当允许租客注册。如果租客点忘记密码应当提示用户不存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客PC】APP下载页内容更改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网接入七陌云服务</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1048,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1416,7 +1444,7 @@
         <v>33</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="M7" s="21" t="s">
         <v>77</v>
@@ -2046,19 +2074,41 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="5"/>
+    <row r="20" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="20">
+        <v>42457</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="20">
+        <v>42457</v>
+      </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="J20" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="5"/>
       <c r="O20" s="4"/>
@@ -2067,19 +2117,41 @@
       <c r="R20" s="7"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="5"/>
+    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="20">
+        <v>42457</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="20">
+        <v>42457</v>
+      </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="J21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="5"/>
       <c r="O21" s="4"/>
@@ -2088,19 +2160,41 @@
       <c r="R21" s="7"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="5"/>
+    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="20">
+        <v>42457</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="20">
+        <v>42457</v>
+      </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="J22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="5"/>
       <c r="O22" s="4"/>

--- a/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_EQ组.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_EQ组.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="88">
   <si>
     <t>No</t>
   </si>
@@ -379,6 +379,10 @@
   </si>
   <si>
     <t>官网接入七陌云服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网微信二维码更换</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1077,7 +1081,7 @@
   <dimension ref="A1:T103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2203,19 +2207,41 @@
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="5"/>
+    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="20">
+        <v>42457</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="20">
+        <v>42457</v>
+      </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="J23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="5"/>
       <c r="O23" s="4"/>

--- a/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_EQ组.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitDoc\Mogo_Doc\VersionRecords\Version 3.1.0 20160331\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -385,12 +380,16 @@
     <t>官网微信二维码更换</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -738,6 +737,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -757,7 +824,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1077,14 +1144,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="41.125" style="10" customWidth="1"/>
@@ -1109,7 +1176,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="41.25" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="21.75" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1211,7 +1278,7 @@
       <c r="R2" s="19"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="27">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1262,7 +1329,7 @@
       </c>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="27">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -1313,7 +1380,7 @@
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="16.5">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -1364,7 +1431,7 @@
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="16.5">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -1415,7 +1482,7 @@
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="27">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -1466,7 +1533,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="16.5">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -1517,7 +1584,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="27">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -1568,7 +1635,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="16.5">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -1619,7 +1686,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="27">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -1670,7 +1737,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="27">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -1721,7 +1788,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="40.5">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -1772,7 +1839,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="16.5">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -1823,7 +1890,7 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="16.5">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -1874,7 +1941,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="16.5">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -1925,7 +1992,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="27">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -1976,7 +2043,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="16.5">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -2027,7 +2094,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="27">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -2078,7 +2145,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="27">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -2121,7 +2188,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="16.5">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -2164,7 +2231,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="16.5">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -2207,7 +2274,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="16.5">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -2250,9 +2317,11 @@
       <c r="R23" s="7"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19">
       <c r="A24" s="7"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -2271,7 +2340,7 @@
       <c r="R24" s="7"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19">
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
@@ -2292,7 +2361,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
@@ -2313,7 +2382,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19">
       <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="7"/>
@@ -2334,7 +2403,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19">
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
@@ -2355,7 +2424,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19">
       <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
@@ -2376,7 +2445,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19">
       <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="7"/>
@@ -2397,7 +2466,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19">
       <c r="A31" s="7"/>
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
@@ -2418,7 +2487,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19">
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
@@ -2439,7 +2508,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19">
       <c r="A33" s="7"/>
       <c r="B33" s="4"/>
       <c r="C33" s="7"/>
@@ -2460,7 +2529,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
@@ -2481,7 +2550,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -2502,7 +2571,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -2523,7 +2592,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -2544,7 +2613,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19">
       <c r="A38" s="7"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
@@ -2565,7 +2634,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
@@ -2586,7 +2655,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19">
       <c r="A40" s="7"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -2607,7 +2676,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19">
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -2628,7 +2697,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
@@ -2649,7 +2718,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19">
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
@@ -2670,7 +2739,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19">
       <c r="A44" s="7"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
@@ -2691,7 +2760,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19">
       <c r="A45" s="7"/>
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
@@ -2712,7 +2781,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19">
       <c r="A46" s="7"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
@@ -2733,7 +2802,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19">
       <c r="A47" s="7"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
@@ -2754,7 +2823,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19">
       <c r="A48" s="7"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
@@ -2775,7 +2844,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19">
       <c r="A49" s="7"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
@@ -2796,7 +2865,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19">
       <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
@@ -2817,7 +2886,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19">
       <c r="A51" s="7"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
@@ -2838,7 +2907,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -2859,7 +2928,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -2880,7 +2949,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -2901,7 +2970,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -2922,7 +2991,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -2943,7 +3012,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -2964,7 +3033,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -2985,7 +3054,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -3006,7 +3075,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -3027,7 +3096,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -3048,7 +3117,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -3069,7 +3138,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -3090,7 +3159,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -3111,7 +3180,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -3132,7 +3201,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -3153,7 +3222,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -3174,7 +3243,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -3195,7 +3264,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -3213,7 +3282,7 @@
       <c r="O69" s="4"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -3231,7 +3300,7 @@
       <c r="O70" s="4"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -3249,7 +3318,7 @@
       <c r="O71" s="4"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -3267,7 +3336,7 @@
       <c r="O72" s="4"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -3285,7 +3354,7 @@
       <c r="O73" s="4"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -3303,7 +3372,7 @@
       <c r="O74" s="4"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -3321,7 +3390,7 @@
       <c r="O75" s="4"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -3339,7 +3408,7 @@
       <c r="O76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -3357,7 +3426,7 @@
       <c r="O77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -3375,7 +3444,7 @@
       <c r="O78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -3393,7 +3462,7 @@
       <c r="O79" s="4"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -3411,7 +3480,7 @@
       <c r="O80" s="4"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -3429,7 +3498,7 @@
       <c r="O81" s="4"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -3447,7 +3516,7 @@
       <c r="O82" s="4"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -3465,7 +3534,7 @@
       <c r="O83" s="4"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -3483,7 +3552,7 @@
       <c r="O84" s="4"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -3501,7 +3570,7 @@
       <c r="O85" s="4"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -3519,7 +3588,7 @@
       <c r="O86" s="4"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -3537,7 +3606,7 @@
       <c r="O87" s="4"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -3555,7 +3624,7 @@
       <c r="O88" s="4"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -3573,7 +3642,7 @@
       <c r="O89" s="4"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3591,7 +3660,7 @@
       <c r="O90" s="4"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3609,7 +3678,7 @@
       <c r="O91" s="4"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3627,7 +3696,7 @@
       <c r="O92" s="4"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3645,7 +3714,7 @@
       <c r="O93" s="4"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3663,7 +3732,7 @@
       <c r="O94" s="4"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3681,7 +3750,7 @@
       <c r="O95" s="4"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3699,7 +3768,7 @@
       <c r="O96" s="4"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3717,7 +3786,7 @@
       <c r="O97" s="4"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3735,7 +3804,7 @@
       <c r="O98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3753,7 +3822,7 @@
       <c r="O99" s="4"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3771,7 +3840,7 @@
       <c r="O100" s="4"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3789,7 +3858,7 @@
       <c r="O101" s="4"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3807,7 +3876,7 @@
       <c r="O102" s="4"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -3833,14 +3902,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -3851,7 +3920,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -3877,7 +3946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -3887,7 +3956,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -3897,7 +3966,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3907,7 +3976,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -3917,7 +3986,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -3927,7 +3996,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -3937,7 +4006,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -3947,7 +4016,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -3957,7 +4026,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -3967,7 +4036,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -3977,7 +4046,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -3987,7 +4056,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -3997,7 +4066,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -4007,7 +4076,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -4017,7 +4086,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -4027,7 +4096,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -4037,7 +4106,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -4047,7 +4116,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>

--- a/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_EQ组.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_EQ组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitDoc\Mogo_Doc\VersionRecords\Version 3.1.0 20160331\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -381,15 +386,66 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>消息</t>
+    <t>预定单失效时对应的账单未做失效出来导致房东端做财务报表统计时都进行了统计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效的预定单所对应的未支付的账单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本修复，上线时执行脚本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周云</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客App】修复预定单失效时对应的账单未做失效出来导致房东端做财务报表统计时都进行了统计的问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q组</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -691,9 +747,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,6 +766,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -737,74 +793,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -824,7 +812,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1144,14 +1132,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="41.125" style="10" customWidth="1"/>
@@ -1176,7 +1164,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="41.25" thickBot="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1235,14 +1223,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="21.75" customHeight="1">
+    <row r="2" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -1251,41 +1239,41 @@
       <c r="E2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <v>42457</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="19"/>
+      <c r="R2" s="18"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="27">
-      <c r="A3" s="18">
+    <row r="3" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1294,49 +1282,49 @@
       <c r="E3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>42457</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="21">
         <v>42458</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="27">
-      <c r="A4" s="18">
+    <row r="4" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1345,49 +1333,49 @@
       <c r="E4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="F4" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>42457</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="21">
         <v>42458</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5">
-      <c r="A5" s="18">
+    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -1396,49 +1384,49 @@
       <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>42457</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="21">
         <v>42460</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="16.5">
-      <c r="A6" s="18">
+    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1447,49 +1435,49 @@
       <c r="E6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G6" s="19" t="s">
+      <c r="F6" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>42457</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="21">
         <v>42460</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" ht="27">
-      <c r="A7" s="18">
+    <row r="7" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -1498,49 +1486,49 @@
       <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="F7" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>42457</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="21">
         <v>42460</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="16.5">
-      <c r="A8" s="18">
+    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -1549,49 +1537,49 @@
       <c r="E8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>42457</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="21">
         <v>42460</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="19" t="s">
+      <c r="R8" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" ht="27">
-      <c r="A9" s="18">
+    <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1600,49 +1588,49 @@
       <c r="E9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G9" s="19" t="s">
+      <c r="F9" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>42457</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="21">
         <v>42460</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="19" t="s">
+      <c r="R9" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" ht="16.5">
-      <c r="A10" s="18">
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1651,49 +1639,49 @@
       <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="F10" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>42457</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="21">
         <v>42460</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="19" t="s">
+      <c r="R10" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="27">
-      <c r="A11" s="18">
+    <row r="11" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1702,49 +1690,49 @@
       <c r="E11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="F11" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>42457</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="21">
         <v>42460</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="O11" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="19" t="s">
+      <c r="R11" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="27">
-      <c r="A12" s="18">
+    <row r="12" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1753,49 +1741,49 @@
       <c r="E12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <v>42457</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="21">
         <v>42460</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="19" t="s">
+      <c r="R12" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" ht="40.5">
-      <c r="A13" s="18">
+    <row r="13" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -1804,49 +1792,49 @@
       <c r="E13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>42457</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="21">
         <v>42460</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="19" t="s">
+      <c r="R13" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" ht="16.5">
-      <c r="A14" s="18">
+    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1855,49 +1843,49 @@
       <c r="E14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G14" s="19" t="s">
+      <c r="F14" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>42457</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="21">
         <v>42460</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="O14" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="19" t="s">
+      <c r="R14" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" ht="16.5">
+    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -1906,49 +1894,49 @@
       <c r="E15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="F15" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>42457</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="21">
         <v>42458</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="19" t="s">
+      <c r="R15" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="16.5">
+    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -1957,49 +1945,49 @@
       <c r="E16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>42457</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="21">
         <v>42458</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="O16" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="19" t="s">
+      <c r="R16" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="27">
+    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2008,49 +1996,49 @@
       <c r="E17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G17" s="19" t="s">
+      <c r="F17" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>42457</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="21">
         <v>42458</v>
       </c>
-      <c r="O17" s="21" t="s">
+      <c r="O17" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="19" t="s">
+      <c r="R17" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5">
+    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2059,49 +2047,49 @@
       <c r="E18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G18" s="19" t="s">
+      <c r="F18" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <v>42457</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="21">
         <v>42458</v>
       </c>
-      <c r="O18" s="21" t="s">
+      <c r="O18" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="19" t="s">
+      <c r="R18" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" ht="27">
+    <row r="19" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2110,49 +2098,49 @@
       <c r="E19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G19" s="19" t="s">
+      <c r="F19" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <v>42457</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="21">
         <v>42458</v>
       </c>
-      <c r="O19" s="21" t="s">
+      <c r="O19" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="19" t="s">
+      <c r="R19" s="18" t="s">
         <v>79</v>
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="27">
+    <row r="20" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -2161,23 +2149,23 @@
       <c r="E20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G20" s="19" t="s">
+      <c r="F20" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <v>42457</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="18" t="s">
         <v>84</v>
       </c>
       <c r="M20" s="7"/>
@@ -2188,14 +2176,14 @@
       <c r="R20" s="7"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5">
+    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -2204,23 +2192,23 @@
       <c r="E21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G21" s="19" t="s">
+      <c r="F21" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <v>42457</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="18" t="s">
         <v>85</v>
       </c>
       <c r="M21" s="7"/>
@@ -2231,14 +2219,14 @@
       <c r="R21" s="7"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="16.5">
+    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -2247,23 +2235,23 @@
       <c r="E22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G22" s="19" t="s">
+      <c r="F22" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <v>42457</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="18" t="s">
         <v>85</v>
       </c>
       <c r="M22" s="7"/>
@@ -2274,14 +2262,14 @@
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" ht="16.5">
+    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -2290,23 +2278,23 @@
       <c r="E23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="20">
-        <v>42457</v>
-      </c>
-      <c r="G23" s="19" t="s">
+      <c r="F23" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <v>42457</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="18" t="s">
         <v>29</v>
       </c>
       <c r="M23" s="7"/>
@@ -2317,30 +2305,52 @@
       <c r="R23" s="7"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="17">
+        <v>22</v>
+      </c>
       <c r="B24" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="19">
+        <v>42465</v>
+      </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="J24" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" s="17"/>
       <c r="N24" s="5"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
@@ -2361,7 +2371,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
@@ -2382,7 +2392,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="7"/>
@@ -2403,7 +2413,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
@@ -2424,7 +2434,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
@@ -2445,7 +2455,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="7"/>
@@ -2466,7 +2476,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
@@ -2487,7 +2497,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
@@ -2508,7 +2518,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="4"/>
       <c r="C33" s="7"/>
@@ -2529,7 +2539,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
@@ -2550,7 +2560,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -2571,7 +2581,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -2592,7 +2602,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -2613,7 +2623,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
@@ -2634,7 +2644,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
@@ -2655,7 +2665,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -2676,7 +2686,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -2697,7 +2707,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
@@ -2718,7 +2728,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
@@ -2739,7 +2749,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
@@ -2760,7 +2770,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
@@ -2781,7 +2791,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
@@ -2802,7 +2812,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
@@ -2823,7 +2833,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
@@ -2844,7 +2854,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
@@ -2865,7 +2875,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
@@ -2886,7 +2896,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
@@ -2907,7 +2917,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -2928,7 +2938,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -2949,7 +2959,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -2970,7 +2980,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -2991,7 +3001,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -3012,7 +3022,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -3033,7 +3043,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -3054,7 +3064,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -3075,7 +3085,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -3096,7 +3106,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -3117,7 +3127,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -3138,7 +3148,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -3159,7 +3169,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -3180,7 +3190,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -3201,7 +3211,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -3222,7 +3232,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -3243,7 +3253,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -3259,12 +3269,9 @@
       <c r="M68" s="7"/>
       <c r="N68" s="5"/>
       <c r="O68" s="4"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -3282,7 +3289,7 @@
       <c r="O69" s="4"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -3300,7 +3307,7 @@
       <c r="O70" s="4"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -3318,7 +3325,7 @@
       <c r="O71" s="4"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -3336,7 +3343,7 @@
       <c r="O72" s="4"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -3354,7 +3361,7 @@
       <c r="O73" s="4"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -3372,7 +3379,7 @@
       <c r="O74" s="4"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -3390,7 +3397,7 @@
       <c r="O75" s="4"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -3408,7 +3415,7 @@
       <c r="O76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -3426,7 +3433,7 @@
       <c r="O77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -3444,7 +3451,7 @@
       <c r="O78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -3462,7 +3469,7 @@
       <c r="O79" s="4"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -3480,7 +3487,7 @@
       <c r="O80" s="4"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -3498,7 +3505,7 @@
       <c r="O81" s="4"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -3516,7 +3523,7 @@
       <c r="O82" s="4"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -3534,7 +3541,7 @@
       <c r="O83" s="4"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -3552,7 +3559,7 @@
       <c r="O84" s="4"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -3570,7 +3577,7 @@
       <c r="O85" s="4"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -3588,7 +3595,7 @@
       <c r="O86" s="4"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -3606,7 +3613,7 @@
       <c r="O87" s="4"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -3624,7 +3631,7 @@
       <c r="O88" s="4"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -3642,7 +3649,7 @@
       <c r="O89" s="4"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3660,7 +3667,7 @@
       <c r="O90" s="4"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3678,7 +3685,7 @@
       <c r="O91" s="4"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3696,7 +3703,7 @@
       <c r="O92" s="4"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3714,7 +3721,7 @@
       <c r="O93" s="4"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3732,7 +3739,7 @@
       <c r="O94" s="4"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3750,7 +3757,7 @@
       <c r="O95" s="4"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3768,7 +3775,7 @@
       <c r="O96" s="4"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3786,7 +3793,7 @@
       <c r="O97" s="4"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3804,7 +3811,7 @@
       <c r="O98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3822,7 +3829,7 @@
       <c r="O99" s="4"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3840,7 +3847,7 @@
       <c r="O100" s="4"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3858,7 +3865,7 @@
       <c r="O101" s="4"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3876,24 +3883,6 @@
       <c r="O102" s="4"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19">
-      <c r="A103" s="7"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="4"/>
-      <c r="S103" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3902,14 +3891,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -3920,7 +3909,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -3946,27 +3935,43 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="16">
+        <v>22</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="22">
+        <v>42467</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="17"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3976,7 +3981,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -3986,7 +3991,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -3996,7 +4001,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -4006,7 +4011,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -4016,7 +4021,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -4026,7 +4031,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -4036,7 +4041,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -4046,7 +4051,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -4056,7 +4061,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -4066,7 +4071,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -4076,7 +4081,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -4086,7 +4091,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -4096,7 +4101,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -4106,7 +4111,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -4116,7 +4121,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>

--- a/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_EQ组.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitDoc\Mogo_Doc\VersionRecords\Version 3.1.0 20160331\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="109">
   <si>
     <t>No</t>
   </si>
@@ -127,10 +122,6 @@
   </si>
   <si>
     <t>周蓉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客消息推送图标及内容优化</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -374,10 +365,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>周蓉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>官网接入七陌云服务</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -440,12 +427,59 @@
     <t>周蓉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>周蓉、吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周云</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客消息推送图标及内容优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC,租客App登录互不影响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客App/PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现保障</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -793,6 +827,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -812,7 +914,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1132,14 +1234,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="41.125" style="10" customWidth="1"/>
@@ -1152,7 +1254,7 @@
     <col min="9" max="9" width="11.875" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.75" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.125" style="10" customWidth="1"/>
     <col min="15" max="15" width="7.75" style="10" customWidth="1"/>
@@ -1164,7 +1266,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="41.25" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1223,1176 +1325,1266 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="21.75" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H2" s="19">
         <v>42457</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="20"/>
+        <v>97</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="21">
+        <v>42467</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="P2" s="20"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="18"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="27">
       <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H3" s="19">
         <v>42457</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="18" t="s">
-        <v>34</v>
-      </c>
       <c r="M3" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N3" s="21">
         <v>42458</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="27">
       <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H4" s="19">
         <v>42457</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="18" t="s">
         <v>29</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N4" s="21">
         <v>42458</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="16.5">
       <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H5" s="19">
         <v>42457</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N5" s="21">
         <v>42460</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="16.5">
       <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="19">
         <v>42457</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6" s="21">
         <v>42460</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="27">
       <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H7" s="19">
         <v>42457</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N7" s="21">
         <v>42460</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="16.5">
       <c r="A8" s="17">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H8" s="19">
         <v>42457</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N8" s="21">
         <v>42460</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="27">
       <c r="A9" s="17">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>50</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F9" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H9" s="19">
         <v>42457</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N9" s="21">
         <v>42460</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="16.5">
       <c r="A10" s="17">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H10" s="19">
         <v>42457</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N10" s="21">
         <v>42460</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="27">
       <c r="A11" s="17">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F11" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H11" s="19">
         <v>42457</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N11" s="21">
         <v>42460</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="27">
       <c r="A12" s="17">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F12" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H12" s="19">
         <v>42457</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N12" s="21">
         <v>42460</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="40.5">
       <c r="A13" s="17">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F13" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H13" s="19">
         <v>42457</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N13" s="21">
         <v>42460</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="16.5">
       <c r="A14" s="17">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F14" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H14" s="19">
         <v>42457</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N14" s="21">
         <v>42460</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="16.5">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="E15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F15" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H15" s="19">
         <v>42457</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N15" s="21">
         <v>42458</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="16.5">
       <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="E16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H16" s="19">
         <v>42457</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N16" s="21">
         <v>42458</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="27">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H17" s="19">
         <v>42457</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N17" s="21">
         <v>42458</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="16.5">
       <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F18" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H18" s="19">
         <v>42457</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N18" s="21">
         <v>42458</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="27">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F19" s="19">
-        <v>42457</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="H19" s="19">
         <v>42457</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="N19" s="21">
         <v>42458</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="27">
       <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="19">
         <v>42457</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="19">
         <v>42457</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" s="21">
+        <v>42458</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="16.5">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="19">
         <v>42457</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="19">
         <v>42457</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" s="21">
+        <v>42458</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="16.5">
       <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="19">
         <v>42457</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="19">
         <v>42457</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N22" s="21">
+        <v>42458</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="16.5">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="19">
         <v>42457</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="19">
         <v>42457</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" s="21">
+        <v>42458</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="40.5">
       <c r="A24" s="17">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="19">
         <v>42457</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="19">
         <v>42465</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="M24" s="17"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" s="21">
+        <v>42458</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
-      <c r="R24" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="R24" s="17"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="5"/>
+    <row r="25" spans="1:19" ht="16.5">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="19">
+        <v>42465</v>
+      </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="4"/>
+      <c r="J25" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="21">
+        <v>42458</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="5"/>
+    <row r="26" spans="1:19" ht="16.5">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="19">
+        <v>42457</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="19">
+        <v>42465</v>
+      </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="4"/>
+      <c r="J26" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N26" s="21">
+        <v>42458</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19">
       <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="7"/>
@@ -2413,7 +2605,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19">
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
@@ -2434,7 +2626,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19">
       <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
@@ -2455,7 +2647,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19">
       <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="7"/>
@@ -2476,7 +2668,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19">
       <c r="A31" s="7"/>
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
@@ -2497,7 +2689,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19">
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
@@ -2518,7 +2710,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19">
       <c r="A33" s="7"/>
       <c r="B33" s="4"/>
       <c r="C33" s="7"/>
@@ -2539,7 +2731,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
@@ -2560,7 +2752,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -2581,7 +2773,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -2602,7 +2794,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -2623,7 +2815,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19">
       <c r="A38" s="7"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
@@ -2644,7 +2836,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
@@ -2665,7 +2857,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19">
       <c r="A40" s="7"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -2686,7 +2878,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19">
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -2707,7 +2899,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
@@ -2728,7 +2920,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19">
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
@@ -2749,7 +2941,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19">
       <c r="A44" s="7"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
@@ -2770,7 +2962,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19">
       <c r="A45" s="7"/>
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
@@ -2791,7 +2983,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19">
       <c r="A46" s="7"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
@@ -2812,7 +3004,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19">
       <c r="A47" s="7"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
@@ -2833,7 +3025,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19">
       <c r="A48" s="7"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
@@ -2854,7 +3046,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19">
       <c r="A49" s="7"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
@@ -2875,7 +3067,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19">
       <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
@@ -2896,7 +3088,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19">
       <c r="A51" s="7"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
@@ -2917,7 +3109,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -2938,7 +3130,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -2959,7 +3151,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -2980,7 +3172,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -3001,7 +3193,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -3022,7 +3214,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -3043,7 +3235,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -3064,7 +3256,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -3085,7 +3277,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -3106,7 +3298,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -3127,7 +3319,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -3148,7 +3340,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -3169,7 +3361,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -3190,7 +3382,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -3211,7 +3403,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -3232,7 +3424,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -3253,7 +3445,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -3271,7 +3463,7 @@
       <c r="O68" s="4"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -3289,7 +3481,7 @@
       <c r="O69" s="4"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -3307,7 +3499,7 @@
       <c r="O70" s="4"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -3325,7 +3517,7 @@
       <c r="O71" s="4"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -3343,7 +3535,7 @@
       <c r="O72" s="4"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -3361,7 +3553,7 @@
       <c r="O73" s="4"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -3379,7 +3571,7 @@
       <c r="O74" s="4"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -3397,7 +3589,7 @@
       <c r="O75" s="4"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -3415,7 +3607,7 @@
       <c r="O76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -3433,7 +3625,7 @@
       <c r="O77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -3451,7 +3643,7 @@
       <c r="O78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -3469,7 +3661,7 @@
       <c r="O79" s="4"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -3487,7 +3679,7 @@
       <c r="O80" s="4"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -3505,7 +3697,7 @@
       <c r="O81" s="4"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -3523,7 +3715,7 @@
       <c r="O82" s="4"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -3541,7 +3733,7 @@
       <c r="O83" s="4"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -3559,7 +3751,7 @@
       <c r="O84" s="4"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -3577,7 +3769,7 @@
       <c r="O85" s="4"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -3595,7 +3787,7 @@
       <c r="O86" s="4"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -3613,7 +3805,7 @@
       <c r="O87" s="4"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -3631,7 +3823,7 @@
       <c r="O88" s="4"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -3649,7 +3841,7 @@
       <c r="O89" s="4"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3667,7 +3859,7 @@
       <c r="O90" s="4"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3685,7 +3877,7 @@
       <c r="O91" s="4"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3703,7 +3895,7 @@
       <c r="O92" s="4"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3721,7 +3913,7 @@
       <c r="O93" s="4"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3739,7 +3931,7 @@
       <c r="O94" s="4"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3757,7 +3949,7 @@
       <c r="O95" s="4"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3775,7 +3967,7 @@
       <c r="O96" s="4"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3793,7 +3985,7 @@
       <c r="O97" s="4"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3811,7 +4003,7 @@
       <c r="O98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3829,7 +4021,7 @@
       <c r="O99" s="4"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3847,7 +4039,7 @@
       <c r="O100" s="4"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3865,7 +4057,7 @@
       <c r="O101" s="4"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3891,14 +4083,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -3909,7 +4101,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -3935,33 +4127,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="40.5">
       <c r="A2" s="16">
         <v>22</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="F2" s="22">
         <v>42467</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -3971,7 +4163,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3981,7 +4173,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -3991,7 +4183,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4001,7 +4193,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -4011,7 +4203,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -4021,7 +4213,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -4031,7 +4223,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -4041,7 +4233,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -4051,7 +4243,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -4061,7 +4253,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -4071,7 +4263,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -4081,7 +4273,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -4091,7 +4283,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -4101,7 +4293,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -4111,7 +4303,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -4121,7 +4313,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
